--- a/data/trans_orig/IQ3004_MoAR-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IQ3004_MoAR-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{809BFB9E-BAB0-4DBF-9E22-586C5B880BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA8515E2-783D-4B6B-922E-10F5CB4C17CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{67DA50BA-CC28-4D81-BD64-B3EC9B18F2C4}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{63E8D060-C91A-4E9B-AEA5-35BC8F8D74D7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,12 +70,273 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>3,71%</t>
   </si>
   <si>
@@ -91,291 +352,282 @@
     <t>3,28%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
     <t>Menores según la edad en meses en la que empezaron a comer carne o pescado en 2012 (Tasa respuesta: 13,2%)</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
     <t>1,36%</t>
   </si>
   <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
     <t>0,69%</t>
   </si>
   <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
     <t>0,44%</t>
   </si>
   <si>
@@ -388,270 +640,237 @@
     <t>1,11%</t>
   </si>
   <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
     <t>Menores según la edad en meses en la que empezaron a comer carne o pescado en 2015 (Tasa respuesta: 10,44%)</t>
   </si>
   <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>1,67%</t>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
     <t>1,96%</t>
   </si>
   <si>
@@ -662,225 +881,6 @@
   </si>
   <si>
     <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887D4E96-9313-4E4C-96F8-FEA8862C07D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C315C8B-D39E-4918-A163-88DF616E78A1}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1387,13 +1387,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>637</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
@@ -1405,40 +1405,40 @@
         <v>12</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>767</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>1403</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1447,661 +1447,661 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>688</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>688</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>4152</v>
+        <v>701</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>2844</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>6996</v>
+        <v>701</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>701</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
-        <v>1202</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="7">
-        <v>4</v>
-      </c>
       <c r="I7" s="7">
-        <v>2611</v>
+        <v>1308</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M7" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>3813</v>
+        <v>2010</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C8" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>26576</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="H8" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>20026</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>46602</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C9" s="7">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2736</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="7">
+        <v>6</v>
+      </c>
+      <c r="I9" s="7">
+        <v>4071</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="7">
+        <v>10</v>
+      </c>
+      <c r="N9" s="7">
+        <v>6807</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="D9" s="7">
-        <v>21309</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="7">
-        <v>30</v>
-      </c>
-      <c r="I9" s="7">
-        <v>19817</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M9" s="7">
-        <v>62</v>
-      </c>
-      <c r="N9" s="7">
-        <v>41125</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C10" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>12016</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="H10" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>9777</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>21793</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>4662</v>
+        <v>5055</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>6170</v>
+        <v>1434</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="M11" s="7">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N11" s="7">
-        <v>10832</v>
+        <v>6489</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>5055</v>
+        <v>4662</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I12" s="7">
-        <v>1434</v>
+        <v>6170</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="M12" s="7">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N12" s="7">
-        <v>6489</v>
+        <v>10832</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>12016</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>9777</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>21793</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D14" s="7">
-        <v>2736</v>
+        <v>21309</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="H14" s="7">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I14" s="7">
-        <v>4071</v>
+        <v>19817</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="M14" s="7">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="N14" s="7">
-        <v>6807</v>
+        <v>41125</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D15" s="7">
-        <v>0</v>
+        <v>26576</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I15" s="7">
-        <v>0</v>
+        <v>20026</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M15" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N15" s="7">
-        <v>0</v>
+        <v>46602</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>701</v>
+        <v>1202</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>1308</v>
+        <v>2611</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N16" s="7">
-        <v>2010</v>
+        <v>3813</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>701</v>
+        <v>4152</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>2844</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N17" s="7">
-        <v>701</v>
+        <v>6996</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -2110,94 +2110,94 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="G18" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>688</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>688</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>637</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>767</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>1403</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,7 +2256,7 @@
         <v>105</v>
       </c>
       <c r="B21" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2301,7 +2301,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -2346,7 +2346,7 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -2391,7 +2391,7 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -2436,7 +2436,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -2481,7 +2481,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -2526,7 +2526,7 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -2571,7 +2571,7 @@
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -2616,7 +2616,7 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -2661,7 +2661,7 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -2706,7 +2706,7 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -2751,7 +2751,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -2796,7 +2796,7 @@
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C33" s="7">
         <v>0</v>
@@ -2841,7 +2841,7 @@
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C34" s="7">
         <v>0</v>
@@ -2886,7 +2886,7 @@
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C35" s="7">
         <v>0</v>
@@ -2931,7 +2931,7 @@
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C36" s="7">
         <v>0</v>
@@ -3023,7 +3023,7 @@
         <v>107</v>
       </c>
       <c r="B38" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C38" s="7">
         <v>0</v>
@@ -3068,7 +3068,7 @@
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="5">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C39" s="7">
         <v>0</v>
@@ -3113,7 +3113,7 @@
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C40" s="7">
         <v>0</v>
@@ -3158,7 +3158,7 @@
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C41" s="7">
         <v>0</v>
@@ -3203,7 +3203,7 @@
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C42" s="7">
         <v>0</v>
@@ -3248,7 +3248,7 @@
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C43" s="7">
         <v>0</v>
@@ -3293,7 +3293,7 @@
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C44" s="7">
         <v>0</v>
@@ -3338,7 +3338,7 @@
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C45" s="7">
         <v>0</v>
@@ -3383,7 +3383,7 @@
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C46" s="7">
         <v>0</v>
@@ -3428,7 +3428,7 @@
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C47" s="7">
         <v>0</v>
@@ -3473,7 +3473,7 @@
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C48" s="7">
         <v>0</v>
@@ -3518,7 +3518,7 @@
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C49" s="7">
         <v>0</v>
@@ -3563,7 +3563,7 @@
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C50" s="7">
         <v>0</v>
@@ -3608,7 +3608,7 @@
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C51" s="7">
         <v>0</v>
@@ -3653,7 +3653,7 @@
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="5">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C52" s="7">
         <v>0</v>
@@ -3698,7 +3698,7 @@
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C53" s="7">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>3</v>
       </c>
       <c r="B55" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C55" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" s="7">
-        <v>637</v>
+        <v>0</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>10</v>
@@ -3808,40 +3808,40 @@
         <v>12</v>
       </c>
       <c r="H55" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" s="7">
-        <v>767</v>
+        <v>0</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M55" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N55" s="7">
-        <v>1403</v>
+        <v>0</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C56" s="7">
         <v>0</v>
@@ -3850,661 +3850,661 @@
         <v>0</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="G56" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H56" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" s="7">
-        <v>688</v>
+        <v>0</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M56" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" s="7">
-        <v>688</v>
+        <v>0</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C57" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D57" s="7">
-        <v>4152</v>
+        <v>701</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H57" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I57" s="7">
-        <v>2844</v>
+        <v>0</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M57" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N57" s="7">
-        <v>6996</v>
+        <v>701</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C58" s="7">
+        <v>1</v>
+      </c>
+      <c r="D58" s="7">
+        <v>701</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="7">
         <v>2</v>
       </c>
-      <c r="D58" s="7">
-        <v>1202</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H58" s="7">
-        <v>4</v>
-      </c>
       <c r="I58" s="7">
-        <v>2611</v>
+        <v>1308</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M58" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N58" s="7">
-        <v>3813</v>
+        <v>2010</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C59" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D59" s="7">
-        <v>26576</v>
+        <v>0</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="H59" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I59" s="7">
-        <v>20026</v>
+        <v>0</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M59" s="7">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="N59" s="7">
-        <v>46602</v>
+        <v>0</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C60" s="7">
+        <v>4</v>
+      </c>
+      <c r="D60" s="7">
+        <v>2736</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" s="7">
+        <v>6</v>
+      </c>
+      <c r="I60" s="7">
+        <v>4071</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M60" s="7">
+        <v>10</v>
+      </c>
+      <c r="N60" s="7">
+        <v>6807</v>
+      </c>
+      <c r="O60" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P60" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q60" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="D60" s="7">
-        <v>21309</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H60" s="7">
-        <v>30</v>
-      </c>
-      <c r="I60" s="7">
-        <v>19817</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L60" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M60" s="7">
-        <v>62</v>
-      </c>
-      <c r="N60" s="7">
-        <v>41125</v>
-      </c>
-      <c r="O60" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P60" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q60" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C61" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D61" s="7">
-        <v>12016</v>
+        <v>0</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="H61" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I61" s="7">
-        <v>9777</v>
+        <v>0</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M61" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="N61" s="7">
-        <v>21793</v>
+        <v>0</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C62" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D62" s="7">
-        <v>4662</v>
+        <v>5055</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="H62" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I62" s="7">
-        <v>6170</v>
+        <v>1434</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="M62" s="7">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N62" s="7">
-        <v>10832</v>
+        <v>6489</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C63" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D63" s="7">
-        <v>5055</v>
+        <v>4662</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="H63" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I63" s="7">
-        <v>1434</v>
+        <v>6170</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="M63" s="7">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N63" s="7">
-        <v>6489</v>
+        <v>10832</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="5">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C64" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D64" s="7">
-        <v>0</v>
+        <v>12016</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="H64" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I64" s="7">
-        <v>0</v>
+        <v>9777</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="M64" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="N64" s="7">
-        <v>0</v>
+        <v>21793</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C65" s="7">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D65" s="7">
-        <v>2736</v>
+        <v>21309</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="H65" s="7">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I65" s="7">
-        <v>4071</v>
+        <v>19817</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="M65" s="7">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="N65" s="7">
-        <v>6807</v>
+        <v>41125</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="5">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C66" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D66" s="7">
-        <v>0</v>
+        <v>26576</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="H66" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I66" s="7">
-        <v>0</v>
+        <v>20026</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M66" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N66" s="7">
-        <v>0</v>
+        <v>46602</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="5">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C67" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67" s="7">
-        <v>701</v>
+        <v>1202</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="H67" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I67" s="7">
-        <v>1308</v>
+        <v>2611</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="M67" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N67" s="7">
-        <v>2010</v>
+        <v>3813</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="5">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C68" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D68" s="7">
-        <v>701</v>
+        <v>4152</v>
       </c>
       <c r="E68" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F68" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="H68" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I68" s="7">
-        <v>0</v>
+        <v>2844</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M68" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N68" s="7">
-        <v>701</v>
+        <v>6996</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="5">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C69" s="7">
         <v>0</v>
@@ -4513,94 +4513,94 @@
         <v>0</v>
       </c>
       <c r="E69" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F69" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="G69" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H69" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" s="7">
-        <v>0</v>
+        <v>688</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="M69" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69" s="7">
-        <v>0</v>
+        <v>688</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C70" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" s="7">
-        <v>0</v>
+        <v>637</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="H70" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" s="7">
-        <v>0</v>
+        <v>767</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="M70" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N70" s="7">
-        <v>0</v>
+        <v>1403</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,7 +4670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61105125-1B84-4DFE-A889-4A9BD66DC4CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4831B2-6D37-4D2A-9C5C-E6E0F1B3490A}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4785,7 +4785,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
@@ -4794,763 +4794,763 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>109</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1215</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1215</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>411</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>411</v>
+        <v>647</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>2895</v>
+        <v>692</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H6" s="7">
-        <v>4</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2434</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
+        <v>692</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M6" s="7">
-        <v>8</v>
-      </c>
-      <c r="N6" s="7">
-        <v>5329</v>
-      </c>
-      <c r="O6" s="7" t="s">
+      <c r="P6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>6315</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="7">
-        <v>6661</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="M7" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>12977</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C8" s="7">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>26089</v>
+        <v>647</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="H8" s="7">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>24992</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="M8" s="7">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>51082</v>
+        <v>647</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C9" s="7">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7">
+        <v>9814</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" s="7">
         <v>15</v>
       </c>
-      <c r="D9" s="7">
-        <v>10933</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H9" s="7">
-        <v>20</v>
-      </c>
       <c r="I9" s="7">
-        <v>13201</v>
+        <v>10315</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="M9" s="7">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N9" s="7">
-        <v>24135</v>
+        <v>20129</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C10" s="7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>23826</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="H10" s="7">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>22479</v>
+        <v>893</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="M10" s="7">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>46304</v>
+        <v>893</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>11268</v>
+        <v>3622</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="H11" s="7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>8373</v>
+        <v>2000</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="M11" s="7">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="N11" s="7">
-        <v>19641</v>
+        <v>5623</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D12" s="7">
-        <v>3622</v>
+        <v>11268</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="H12" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I12" s="7">
-        <v>2000</v>
+        <v>8373</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="M12" s="7">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="N12" s="7">
-        <v>5623</v>
+        <v>19641</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>23826</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I13" s="7">
-        <v>893</v>
+        <v>22479</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="N13" s="7">
-        <v>893</v>
+        <v>46304</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C14" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" s="7">
-        <v>9814</v>
+        <v>10933</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="H14" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I14" s="7">
-        <v>10315</v>
+        <v>13201</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="M14" s="7">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N14" s="7">
-        <v>20129</v>
+        <v>24135</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C15" s="7">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D15" s="7">
-        <v>647</v>
+        <v>26089</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I15" s="7">
-        <v>0</v>
+        <v>24992</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="M15" s="7">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="N15" s="7">
-        <v>647</v>
+        <v>51082</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>6315</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H16" s="7">
         <v>11</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>6661</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>185</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>12977</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>187</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>692</v>
+        <v>2895</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>192</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>2434</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="M17" s="7">
+        <v>8</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5329</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="M17" s="7">
-        <v>1</v>
-      </c>
-      <c r="N17" s="7">
-        <v>692</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>194</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>647</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>187</v>
+        <v>10</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>11</v>
+        <v>196</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
       </c>
       <c r="N18" s="7">
-        <v>647</v>
+        <v>411</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -5559,43 +5559,43 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>109</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>1215</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>197</v>
+        <v>116</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>1215</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>199</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5654,7 +5654,7 @@
         <v>105</v>
       </c>
       <c r="B21" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -5699,7 +5699,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -5744,7 +5744,7 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -5789,7 +5789,7 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -5834,7 +5834,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -5879,7 +5879,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -5924,7 +5924,7 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -5969,7 +5969,7 @@
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -6014,7 +6014,7 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -6059,7 +6059,7 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -6104,7 +6104,7 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -6149,7 +6149,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -6194,7 +6194,7 @@
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C33" s="7">
         <v>0</v>
@@ -6239,7 +6239,7 @@
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C34" s="7">
         <v>0</v>
@@ -6284,7 +6284,7 @@
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C35" s="7">
         <v>0</v>
@@ -6329,7 +6329,7 @@
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C36" s="7">
         <v>0</v>
@@ -6421,7 +6421,7 @@
         <v>107</v>
       </c>
       <c r="B38" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C38" s="7">
         <v>0</v>
@@ -6466,7 +6466,7 @@
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="5">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C39" s="7">
         <v>0</v>
@@ -6511,7 +6511,7 @@
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C40" s="7">
         <v>0</v>
@@ -6556,7 +6556,7 @@
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C41" s="7">
         <v>0</v>
@@ -6601,7 +6601,7 @@
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C42" s="7">
         <v>0</v>
@@ -6646,7 +6646,7 @@
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C43" s="7">
         <v>0</v>
@@ -6691,7 +6691,7 @@
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C44" s="7">
         <v>0</v>
@@ -6736,7 +6736,7 @@
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C45" s="7">
         <v>0</v>
@@ -6781,7 +6781,7 @@
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C46" s="7">
         <v>0</v>
@@ -6826,7 +6826,7 @@
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C47" s="7">
         <v>0</v>
@@ -6871,7 +6871,7 @@
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C48" s="7">
         <v>0</v>
@@ -6916,7 +6916,7 @@
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C49" s="7">
         <v>0</v>
@@ -6961,7 +6961,7 @@
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C50" s="7">
         <v>0</v>
@@ -7006,7 +7006,7 @@
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C51" s="7">
         <v>0</v>
@@ -7051,7 +7051,7 @@
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="5">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C52" s="7">
         <v>0</v>
@@ -7096,7 +7096,7 @@
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C53" s="7">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C55" s="7">
         <v>0</v>
@@ -7197,763 +7197,763 @@
         <v>0</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>109</v>
       </c>
       <c r="H55" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="7">
-        <v>0</v>
+        <v>1215</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M55" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55" s="7">
-        <v>0</v>
+        <v>1215</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C56" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" s="7">
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="H56" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" s="7">
-        <v>411</v>
+        <v>0</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M56" s="7">
         <v>1</v>
       </c>
       <c r="N56" s="7">
-        <v>411</v>
+        <v>647</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C57" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D57" s="7">
-        <v>2895</v>
+        <v>692</v>
       </c>
       <c r="E57" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H57" s="7">
+        <v>0</v>
+      </c>
+      <c r="I57" s="7">
+        <v>0</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L57" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F57" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H57" s="7">
-        <v>4</v>
-      </c>
-      <c r="I57" s="7">
-        <v>2434</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K57" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L57" s="7" t="s">
+      <c r="M57" s="7">
+        <v>1</v>
+      </c>
+      <c r="N57" s="7">
+        <v>692</v>
+      </c>
+      <c r="O57" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M57" s="7">
-        <v>8</v>
-      </c>
-      <c r="N57" s="7">
-        <v>5329</v>
-      </c>
-      <c r="O57" s="7" t="s">
+      <c r="P57" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q57" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P57" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q57" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C58" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D58" s="7">
-        <v>6315</v>
+        <v>0</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="H58" s="7">
+        <v>0</v>
+      </c>
+      <c r="I58" s="7">
+        <v>0</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I58" s="7">
-        <v>6661</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="L58" s="7" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="M58" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N58" s="7">
-        <v>12977</v>
+        <v>0</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C59" s="7">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D59" s="7">
-        <v>26089</v>
+        <v>647</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="H59" s="7">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I59" s="7">
-        <v>24992</v>
+        <v>0</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="M59" s="7">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="N59" s="7">
-        <v>51082</v>
+        <v>647</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C60" s="7">
+        <v>14</v>
+      </c>
+      <c r="D60" s="7">
+        <v>9814</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H60" s="7">
         <v>15</v>
       </c>
-      <c r="D60" s="7">
-        <v>10933</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H60" s="7">
-        <v>20</v>
-      </c>
       <c r="I60" s="7">
-        <v>13201</v>
+        <v>10315</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="M60" s="7">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N60" s="7">
-        <v>24135</v>
+        <v>20129</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C61" s="7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D61" s="7">
-        <v>23826</v>
+        <v>0</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="H61" s="7">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="I61" s="7">
-        <v>22479</v>
+        <v>893</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="M61" s="7">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="N61" s="7">
-        <v>46304</v>
+        <v>893</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C62" s="7">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D62" s="7">
-        <v>11268</v>
+        <v>3622</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="H62" s="7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I62" s="7">
-        <v>8373</v>
+        <v>2000</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="M62" s="7">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="N62" s="7">
-        <v>19641</v>
+        <v>5623</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C63" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D63" s="7">
-        <v>3622</v>
+        <v>11268</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="H63" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I63" s="7">
-        <v>2000</v>
+        <v>8373</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="M63" s="7">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="N63" s="7">
-        <v>5623</v>
+        <v>19641</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="5">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C64" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D64" s="7">
-        <v>0</v>
+        <v>23826</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="H64" s="7">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I64" s="7">
-        <v>893</v>
+        <v>22479</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="M64" s="7">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="N64" s="7">
-        <v>893</v>
+        <v>46304</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C65" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D65" s="7">
-        <v>9814</v>
+        <v>10933</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="H65" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I65" s="7">
-        <v>10315</v>
+        <v>13201</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="M65" s="7">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N65" s="7">
-        <v>20129</v>
+        <v>24135</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="5">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C66" s="7">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D66" s="7">
-        <v>647</v>
+        <v>26089</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="H66" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I66" s="7">
-        <v>0</v>
+        <v>24992</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="M66" s="7">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="N66" s="7">
-        <v>647</v>
+        <v>51082</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="5">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C67" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D67" s="7">
-        <v>0</v>
+        <v>6315</v>
       </c>
       <c r="E67" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H67" s="7">
         <v>11</v>
       </c>
-      <c r="F67" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H67" s="7">
-        <v>0</v>
-      </c>
       <c r="I67" s="7">
-        <v>0</v>
+        <v>6661</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>17</v>
+        <v>185</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="M67" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N67" s="7">
-        <v>0</v>
+        <v>12977</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>11</v>
+        <v>187</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="5">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C68" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D68" s="7">
-        <v>692</v>
+        <v>2895</v>
       </c>
       <c r="E68" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F68" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>192</v>
       </c>
       <c r="H68" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I68" s="7">
-        <v>0</v>
+        <v>2434</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="L68" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="M68" s="7">
+        <v>8</v>
+      </c>
+      <c r="N68" s="7">
+        <v>5329</v>
+      </c>
+      <c r="O68" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P68" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="M68" s="7">
-        <v>1</v>
-      </c>
-      <c r="N68" s="7">
-        <v>692</v>
-      </c>
-      <c r="O68" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="P68" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="Q68" s="7" t="s">
-        <v>194</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="5">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C69" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" s="7">
-        <v>647</v>
+        <v>0</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>187</v>
+        <v>10</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="H69" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" s="7">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>11</v>
+        <v>196</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="M69" s="7">
         <v>1</v>
       </c>
       <c r="N69" s="7">
-        <v>647</v>
+        <v>411</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C70" s="7">
         <v>0</v>
@@ -7962,43 +7962,43 @@
         <v>0</v>
       </c>
       <c r="E70" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>109</v>
       </c>
       <c r="H70" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" s="7">
-        <v>1215</v>
+        <v>0</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>197</v>
+        <v>116</v>
       </c>
       <c r="M70" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N70" s="7">
-        <v>1215</v>
+        <v>0</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="P70" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>199</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -8068,7 +8068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467A13D7-7890-425E-9066-2AD680528D2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCAC3A0-84DB-4889-809E-4FE337683B89}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8183,19 +8183,19 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>201</v>
@@ -8207,43 +8207,43 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>202</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>1401</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
@@ -8252,718 +8252,718 @@
         <v>205</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>1179</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>206</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>1401</v>
+        <v>1179</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>4191</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>208</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>641</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="M6" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>4832</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>212</v>
+        <v>10</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>213</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>80</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>3391</v>
+        <v>768</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>768</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H7" s="7">
-        <v>4</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2445</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M7" s="7">
-        <v>9</v>
-      </c>
-      <c r="N7" s="7">
-        <v>5836</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C8" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>27336</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>221</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="H8" s="7">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>22869</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>224</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="M8" s="7">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>50206</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>226</v>
+        <v>10</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>227</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C9" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D9" s="7">
-        <v>4710</v>
+        <v>2561</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="H9" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I9" s="7">
-        <v>5842</v>
+        <v>10030</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>234</v>
+        <v>66</v>
       </c>
       <c r="M9" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N9" s="7">
-        <v>10553</v>
+        <v>12591</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C10" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>15227</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>238</v>
+        <v>10</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>239</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>15571</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>241</v>
+        <v>10</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>242</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>30798</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>10</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5">
+        <v>10</v>
+      </c>
+      <c r="C11" s="7">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1848</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H11" s="7">
+        <v>6</v>
+      </c>
+      <c r="I11" s="7">
+        <v>3411</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M11" s="7">
         <v>9</v>
       </c>
-      <c r="C11" s="7">
-        <v>15</v>
-      </c>
-      <c r="D11" s="7">
-        <v>9477</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H11" s="7">
-        <v>14</v>
-      </c>
-      <c r="I11" s="7">
-        <v>9178</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M11" s="7">
-        <v>29</v>
-      </c>
       <c r="N11" s="7">
-        <v>18655</v>
+        <v>5260</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D12" s="7">
-        <v>1848</v>
+        <v>9477</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="H12" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I12" s="7">
-        <v>3411</v>
+        <v>9178</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="M12" s="7">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="N12" s="7">
-        <v>5260</v>
+        <v>18655</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>15227</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>240</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>17</v>
+        <v>241</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>15571</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>243</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>17</v>
+        <v>244</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>30798</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>246</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>203</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>2561</v>
+        <v>4710</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="H14" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I14" s="7">
-        <v>10030</v>
+        <v>5842</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>56</v>
+        <v>253</v>
       </c>
       <c r="M14" s="7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N14" s="7">
-        <v>12591</v>
+        <v>10553</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D15" s="7">
-        <v>0</v>
+        <v>27336</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>17</v>
+        <v>258</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I15" s="7">
-        <v>0</v>
+        <v>22869</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>11</v>
+        <v>260</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>17</v>
+        <v>261</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="M15" s="7">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="N15" s="7">
-        <v>0</v>
+        <v>50206</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>17</v>
+        <v>264</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>203</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>768</v>
+        <v>3391</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>267</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>2445</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>26</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N16" s="7">
-        <v>768</v>
+        <v>5836</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>273</v>
+        <v>88</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>4191</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>271</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>201</v>
+        <v>272</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>641</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>273</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>274</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>4832</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>11</v>
+        <v>275</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>203</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>1401</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>11</v>
+        <v>277</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>201</v>
+        <v>278</v>
       </c>
       <c r="H18" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>1179</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>275</v>
+        <v>10</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>276</v>
+        <v>202</v>
       </c>
       <c r="M18" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N18" s="7">
-        <v>1179</v>
+        <v>1401</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>687</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>278</v>
+        <v>205</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -8972,28 +8972,28 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>202</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>687</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>279</v>
+        <v>10</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>280</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9052,7 +9052,7 @@
         <v>105</v>
       </c>
       <c r="B21" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -9097,7 +9097,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -9142,7 +9142,7 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -9187,7 +9187,7 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -9232,7 +9232,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -9277,7 +9277,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -9322,7 +9322,7 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -9367,7 +9367,7 @@
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -9412,7 +9412,7 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -9457,7 +9457,7 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -9502,7 +9502,7 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -9547,7 +9547,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -9592,7 +9592,7 @@
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C33" s="7">
         <v>0</v>
@@ -9637,7 +9637,7 @@
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C34" s="7">
         <v>0</v>
@@ -9682,7 +9682,7 @@
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C35" s="7">
         <v>0</v>
@@ -9727,7 +9727,7 @@
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C36" s="7">
         <v>0</v>
@@ -9819,7 +9819,7 @@
         <v>107</v>
       </c>
       <c r="B38" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C38" s="7">
         <v>0</v>
@@ -9864,7 +9864,7 @@
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="5">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C39" s="7">
         <v>0</v>
@@ -9909,7 +9909,7 @@
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C40" s="7">
         <v>0</v>
@@ -9954,7 +9954,7 @@
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C41" s="7">
         <v>0</v>
@@ -9999,7 +9999,7 @@
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C42" s="7">
         <v>0</v>
@@ -10044,7 +10044,7 @@
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C43" s="7">
         <v>0</v>
@@ -10089,7 +10089,7 @@
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C44" s="7">
         <v>0</v>
@@ -10134,7 +10134,7 @@
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C45" s="7">
         <v>0</v>
@@ -10179,7 +10179,7 @@
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C46" s="7">
         <v>0</v>
@@ -10224,7 +10224,7 @@
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C47" s="7">
         <v>0</v>
@@ -10269,7 +10269,7 @@
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C48" s="7">
         <v>0</v>
@@ -10314,7 +10314,7 @@
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C49" s="7">
         <v>0</v>
@@ -10359,7 +10359,7 @@
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C50" s="7">
         <v>0</v>
@@ -10404,7 +10404,7 @@
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C51" s="7">
         <v>0</v>
@@ -10449,7 +10449,7 @@
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="5">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C52" s="7">
         <v>0</v>
@@ -10494,7 +10494,7 @@
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C53" s="7">
         <v>0</v>
@@ -10586,19 +10586,19 @@
         <v>3</v>
       </c>
       <c r="B55" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C55" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" s="7">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>201</v>
@@ -10610,43 +10610,43 @@
         <v>0</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>202</v>
       </c>
       <c r="M55" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55" s="7">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>11</v>
+        <v>203</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C56" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D56" s="7">
-        <v>1401</v>
+        <v>0</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>11</v>
@@ -10655,718 +10655,718 @@
         <v>205</v>
       </c>
       <c r="H56" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I56" s="7">
-        <v>0</v>
+        <v>1179</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>11</v>
+        <v>206</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="M56" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N56" s="7">
-        <v>1401</v>
+        <v>1179</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C57" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D57" s="7">
-        <v>4191</v>
+        <v>0</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>208</v>
+        <v>11</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H57" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" s="7">
-        <v>641</v>
+        <v>0</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="M57" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N57" s="7">
-        <v>4832</v>
+        <v>0</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>212</v>
+        <v>10</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>213</v>
+        <v>11</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>80</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C58" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D58" s="7">
-        <v>3391</v>
+        <v>768</v>
       </c>
       <c r="E58" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H58" s="7">
+        <v>0</v>
+      </c>
+      <c r="I58" s="7">
+        <v>0</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="M58" s="7">
+        <v>1</v>
+      </c>
+      <c r="N58" s="7">
+        <v>768</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q58" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H58" s="7">
-        <v>4</v>
-      </c>
-      <c r="I58" s="7">
-        <v>2445</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M58" s="7">
-        <v>9</v>
-      </c>
-      <c r="N58" s="7">
-        <v>5836</v>
-      </c>
-      <c r="O58" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P58" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q58" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C59" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D59" s="7">
-        <v>27336</v>
+        <v>0</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>221</v>
+        <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="H59" s="7">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I59" s="7">
-        <v>22869</v>
+        <v>0</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>224</v>
+        <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="M59" s="7">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="N59" s="7">
-        <v>50206</v>
+        <v>0</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>226</v>
+        <v>10</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>227</v>
+        <v>11</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C60" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D60" s="7">
-        <v>4710</v>
+        <v>2561</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="H60" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I60" s="7">
-        <v>5842</v>
+        <v>10030</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>234</v>
+        <v>66</v>
       </c>
       <c r="M60" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N60" s="7">
-        <v>10553</v>
+        <v>12591</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C61" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D61" s="7">
-        <v>15227</v>
+        <v>0</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>238</v>
+        <v>10</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>239</v>
+        <v>11</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="H61" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I61" s="7">
-        <v>15571</v>
+        <v>0</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>241</v>
+        <v>10</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>242</v>
+        <v>11</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="M61" s="7">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="N61" s="7">
-        <v>30798</v>
+        <v>0</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>244</v>
+        <v>10</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5">
+        <v>10</v>
+      </c>
+      <c r="C62" s="7">
+        <v>3</v>
+      </c>
+      <c r="D62" s="7">
+        <v>1848</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H62" s="7">
+        <v>6</v>
+      </c>
+      <c r="I62" s="7">
+        <v>3411</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L62" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M62" s="7">
         <v>9</v>
       </c>
-      <c r="C62" s="7">
-        <v>15</v>
-      </c>
-      <c r="D62" s="7">
-        <v>9477</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H62" s="7">
-        <v>14</v>
-      </c>
-      <c r="I62" s="7">
-        <v>9178</v>
-      </c>
-      <c r="J62" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L62" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M62" s="7">
-        <v>29</v>
-      </c>
       <c r="N62" s="7">
-        <v>18655</v>
+        <v>5260</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C63" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D63" s="7">
-        <v>1848</v>
+        <v>9477</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="H63" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I63" s="7">
-        <v>3411</v>
+        <v>9178</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="M63" s="7">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="N63" s="7">
-        <v>5260</v>
+        <v>18655</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="5">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C64" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D64" s="7">
-        <v>0</v>
+        <v>15227</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>11</v>
+        <v>240</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>17</v>
+        <v>241</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="H64" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I64" s="7">
-        <v>0</v>
+        <v>15571</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>11</v>
+        <v>243</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>17</v>
+        <v>244</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="M64" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="N64" s="7">
-        <v>0</v>
+        <v>30798</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>11</v>
+        <v>246</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>203</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C65" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D65" s="7">
-        <v>2561</v>
+        <v>4710</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="H65" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I65" s="7">
-        <v>10030</v>
+        <v>5842</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>56</v>
+        <v>253</v>
       </c>
       <c r="M65" s="7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N65" s="7">
-        <v>12591</v>
+        <v>10553</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="5">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C66" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D66" s="7">
-        <v>0</v>
+        <v>27336</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>17</v>
+        <v>258</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="H66" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I66" s="7">
-        <v>0</v>
+        <v>22869</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>11</v>
+        <v>260</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>17</v>
+        <v>261</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="M66" s="7">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="N66" s="7">
-        <v>0</v>
+        <v>50206</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>17</v>
+        <v>264</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>203</v>
+        <v>265</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="5">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C67" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D67" s="7">
-        <v>768</v>
+        <v>3391</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>11</v>
+        <v>267</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H67" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I67" s="7">
-        <v>0</v>
+        <v>2445</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>202</v>
+        <v>26</v>
       </c>
       <c r="M67" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N67" s="7">
-        <v>768</v>
+        <v>5836</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>273</v>
+        <v>88</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="5">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C68" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D68" s="7">
-        <v>0</v>
+        <v>4191</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>17</v>
+        <v>271</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>201</v>
+        <v>272</v>
       </c>
       <c r="H68" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" s="7">
-        <v>0</v>
+        <v>641</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>11</v>
+        <v>273</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>202</v>
+        <v>274</v>
       </c>
       <c r="M68" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N68" s="7">
-        <v>0</v>
+        <v>4832</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>11</v>
+        <v>275</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>203</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="5">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C69" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D69" s="7">
-        <v>0</v>
+        <v>1401</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>11</v>
+        <v>277</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>201</v>
+        <v>278</v>
       </c>
       <c r="H69" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" s="7">
-        <v>1179</v>
+        <v>0</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>275</v>
+        <v>10</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>276</v>
+        <v>202</v>
       </c>
       <c r="M69" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N69" s="7">
-        <v>1179</v>
+        <v>1401</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C70" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" s="7">
-        <v>687</v>
+        <v>0</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>278</v>
+        <v>205</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>0</v>
       </c>
       <c r="J70" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K70" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="L70" s="7" t="s">
         <v>202</v>
       </c>
       <c r="M70" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N70" s="7">
-        <v>687</v>
+        <v>0</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>279</v>
+        <v>10</v>
       </c>
       <c r="P70" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>280</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
